--- a/output_excel/obj_MINIPAKsro_ORDER2025080_filled_order_note.xlsx
+++ b/output_excel/obj_MINIPAKsro_ORDER2025080_filled_order_note.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <color indexed="8"/>
@@ -116,6 +116,15 @@
       <color indexed="8"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -155,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1124,13 +1133,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1593,15 +1646,25 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3472,160 +3535,158 @@
       <c r="K21" s="89" t="n"/>
       <c r="L21" s="171" t="n"/>
     </row>
-    <row r="22" ht="28.5" customHeight="1" s="129">
-      <c r="A22" s="92" t="n"/>
-      <c r="B22" s="93" t="n"/>
-      <c r="C22" s="94" t="n"/>
-      <c r="D22" s="94" t="n"/>
-      <c r="E22" s="94" t="n"/>
-      <c r="F22" s="94" t="n"/>
-      <c r="G22" s="95" t="n"/>
-      <c r="H22" s="95" t="n"/>
-      <c r="I22" s="96" t="n"/>
-      <c r="J22" s="96" t="n"/>
-      <c r="K22" s="97" t="n"/>
-      <c r="L22" s="98" t="n"/>
+    <row r="22" ht="25" customHeight="1" s="129">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="172" t="inlineStr"/>
+      <c r="C22" s="172" t="inlineStr"/>
+      <c r="D22" s="172" t="inlineStr"/>
+      <c r="E22" s="172" t="inlineStr"/>
+      <c r="F22" s="172" t="inlineStr"/>
+      <c r="G22" s="172" t="inlineStr"/>
+      <c r="H22" s="172" t="inlineStr"/>
+      <c r="I22" s="172" t="inlineStr"/>
+      <c r="J22" s="172" t="inlineStr"/>
+      <c r="K22" s="172" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
-    <row r="23">
-      <c r="A23" s="99" t="n"/>
-      <c r="B23" s="100" t="n"/>
-      <c r="C23" s="101" t="n"/>
-      <c r="D23" s="101" t="n"/>
-      <c r="E23" s="101" t="n"/>
-      <c r="F23" s="101" t="n"/>
-      <c r="G23" s="102" t="n"/>
-      <c r="H23" s="103" t="n"/>
-      <c r="I23" s="172" t="inlineStr">
+    <row r="23" ht="25" customHeight="1" s="129">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" s="172" t="inlineStr"/>
+      <c r="C23" s="172" t="inlineStr"/>
+      <c r="D23" s="172" t="inlineStr"/>
+      <c r="E23" s="172" t="inlineStr"/>
+      <c r="F23" s="172" t="inlineStr"/>
+      <c r="G23" s="172" t="inlineStr"/>
+      <c r="H23" s="172" t="inlineStr"/>
+      <c r="I23" s="173" t="inlineStr">
         <is>
           <t>Expedícia objednávky</t>
         </is>
       </c>
-      <c r="J23" s="131" t="n"/>
-      <c r="K23" s="131" t="n"/>
-      <c r="L23" s="132" t="n"/>
+      <c r="J23" s="174" t="n"/>
+      <c r="K23" s="174" t="n"/>
+      <c r="L23" s="174" t="n"/>
     </row>
-    <row r="24">
-      <c r="A24" s="99" t="n"/>
-      <c r="B24" s="100" t="n"/>
-      <c r="C24" s="101" t="n"/>
-      <c r="D24" s="101" t="n"/>
-      <c r="E24" s="101" t="n"/>
-      <c r="F24" s="101" t="n"/>
-      <c r="G24" s="102" t="n"/>
-      <c r="H24" s="107" t="n"/>
-      <c r="I24" s="108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Typ palty </t>
-        </is>
-      </c>
-      <c r="J24" s="109" t="inlineStr">
+    <row r="24" ht="25" customHeight="1" s="129">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" s="172" t="inlineStr"/>
+      <c r="C24" s="172" t="inlineStr"/>
+      <c r="D24" s="172" t="inlineStr"/>
+      <c r="E24" s="172" t="inlineStr"/>
+      <c r="F24" s="172" t="inlineStr"/>
+      <c r="G24" s="172" t="inlineStr"/>
+      <c r="H24" s="172" t="inlineStr"/>
+      <c r="I24" s="175" t="inlineStr">
+        <is>
+          <t>Typ palty</t>
+        </is>
+      </c>
+      <c r="J24" s="175" t="inlineStr">
         <is>
           <t>Rozmer</t>
         </is>
       </c>
-      <c r="K24" s="173" t="n"/>
-      <c r="L24" s="111" t="inlineStr">
+      <c r="K24" s="176" t="n"/>
+      <c r="L24" s="175" t="inlineStr">
         <is>
           <t>Váha</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="112" t="n"/>
-      <c r="B25" s="113" t="n"/>
-      <c r="C25" s="114" t="n"/>
-      <c r="D25" s="114" t="n"/>
-      <c r="E25" s="114" t="n"/>
-      <c r="F25" s="114" t="n"/>
-      <c r="G25" s="102" t="n"/>
-      <c r="H25" s="107" t="n"/>
-      <c r="I25" s="115" t="n"/>
-      <c r="J25" s="116" t="n"/>
-      <c r="K25" s="174" t="n"/>
-      <c r="L25" s="118" t="n"/>
+    <row r="25" ht="25" customHeight="1" s="129">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" s="172" t="inlineStr"/>
+      <c r="C25" s="172" t="inlineStr"/>
+      <c r="D25" s="172" t="inlineStr"/>
+      <c r="E25" s="172" t="inlineStr"/>
+      <c r="F25" s="172" t="inlineStr"/>
+      <c r="G25" s="172" t="inlineStr"/>
+      <c r="H25" s="172" t="inlineStr"/>
+      <c r="I25" s="177" t="inlineStr"/>
+      <c r="J25" s="178" t="inlineStr"/>
+      <c r="K25" s="179" t="n"/>
+      <c r="L25" t="inlineStr"/>
     </row>
-    <row r="26">
-      <c r="A26" s="112" t="n"/>
-      <c r="B26" s="113" t="n"/>
-      <c r="C26" s="114" t="n"/>
-      <c r="D26" s="114" t="n"/>
-      <c r="E26" s="114" t="n"/>
-      <c r="F26" s="114" t="n"/>
-      <c r="G26" s="102" t="n"/>
-      <c r="H26" s="119" t="n"/>
-      <c r="I26" s="120" t="n"/>
-      <c r="J26" s="175" t="n"/>
-      <c r="K26" s="176" t="n"/>
-      <c r="L26" s="123" t="n"/>
+    <row r="26" ht="25" customHeight="1" s="129">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="172" t="inlineStr"/>
+      <c r="C26" s="172" t="inlineStr"/>
+      <c r="D26" s="172" t="inlineStr"/>
+      <c r="E26" s="172" t="inlineStr"/>
+      <c r="F26" s="172" t="inlineStr"/>
+      <c r="G26" s="172" t="inlineStr"/>
+      <c r="H26" s="172" t="inlineStr"/>
+      <c r="I26" s="177" t="inlineStr"/>
+      <c r="J26" s="179" t="n"/>
+      <c r="K26" s="179" t="n"/>
+      <c r="L26" t="inlineStr"/>
     </row>
-    <row r="27">
-      <c r="A27" s="112" t="n"/>
-      <c r="B27" s="113" t="n"/>
-      <c r="C27" s="114" t="n"/>
-      <c r="D27" s="114" t="n"/>
-      <c r="E27" s="114" t="n"/>
-      <c r="F27" s="114" t="n"/>
-      <c r="G27" s="102" t="n"/>
-      <c r="H27" s="119" t="n"/>
-      <c r="I27" s="120" t="n"/>
-      <c r="J27" s="175" t="n"/>
-      <c r="K27" s="176" t="n"/>
-      <c r="L27" s="123" t="n"/>
+    <row r="27" ht="25" customHeight="1" s="129">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" s="172" t="inlineStr"/>
+      <c r="C27" s="172" t="inlineStr"/>
+      <c r="D27" s="172" t="inlineStr"/>
+      <c r="E27" s="172" t="inlineStr"/>
+      <c r="F27" s="172" t="inlineStr"/>
+      <c r="G27" s="172" t="inlineStr"/>
+      <c r="H27" s="172" t="inlineStr"/>
+      <c r="I27" s="177" t="inlineStr"/>
+      <c r="J27" s="179" t="n"/>
+      <c r="K27" s="179" t="n"/>
+      <c r="L27" t="inlineStr"/>
     </row>
-    <row r="28">
-      <c r="A28" s="112" t="n"/>
-      <c r="B28" s="113" t="n"/>
-      <c r="C28" s="114" t="n"/>
-      <c r="D28" s="114" t="n"/>
-      <c r="E28" s="114" t="n"/>
-      <c r="F28" s="114" t="n"/>
-      <c r="G28" s="102" t="n"/>
-      <c r="H28" s="119" t="n"/>
-      <c r="I28" s="120" t="n"/>
-      <c r="J28" s="177" t="n"/>
-      <c r="K28" s="178" t="n"/>
-      <c r="L28" s="123" t="n"/>
+    <row r="28" ht="25" customHeight="1" s="129">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" s="172" t="inlineStr"/>
+      <c r="C28" s="172" t="inlineStr"/>
+      <c r="D28" s="172" t="inlineStr"/>
+      <c r="E28" s="172" t="inlineStr"/>
+      <c r="F28" s="172" t="inlineStr"/>
+      <c r="G28" s="172" t="inlineStr"/>
+      <c r="H28" s="172" t="inlineStr"/>
+      <c r="I28" s="177" t="inlineStr"/>
+      <c r="J28" s="179" t="n"/>
+      <c r="K28" s="179" t="n"/>
+      <c r="L28" t="inlineStr"/>
     </row>
-    <row r="29">
-      <c r="A29" s="124" t="n"/>
-      <c r="B29" s="125" t="n"/>
-      <c r="C29" s="124" t="n"/>
-      <c r="D29" s="124" t="n"/>
-      <c r="E29" s="124" t="n"/>
-      <c r="F29" s="124" t="n"/>
-      <c r="G29" s="124" t="n"/>
-      <c r="H29" s="124" t="n"/>
-      <c r="I29" s="124" t="n"/>
-      <c r="J29" s="126" t="n"/>
-      <c r="K29" s="127" t="n"/>
-      <c r="L29" s="125" t="n"/>
+    <row r="29" ht="25" customHeight="1" s="129">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" s="172" t="inlineStr"/>
+      <c r="C29" s="172" t="inlineStr"/>
+      <c r="D29" s="172" t="inlineStr"/>
+      <c r="E29" s="172" t="inlineStr"/>
+      <c r="F29" s="172" t="inlineStr"/>
+      <c r="G29" s="172" t="inlineStr"/>
+      <c r="H29" s="172" t="inlineStr"/>
+      <c r="I29" s="177" t="inlineStr"/>
+      <c r="J29" s="177" t="inlineStr"/>
+      <c r="K29" s="177" t="inlineStr"/>
+      <c r="L29" s="180" t="inlineStr"/>
     </row>
-    <row r="30">
-      <c r="A30" s="126" t="n"/>
-      <c r="B30" s="127" t="n"/>
-      <c r="C30" s="126" t="n"/>
-      <c r="D30" s="126" t="n"/>
-      <c r="E30" s="126" t="n"/>
-      <c r="F30" s="126" t="n"/>
-      <c r="G30" s="126" t="n"/>
-      <c r="H30" s="126" t="n"/>
-      <c r="I30" s="126" t="n"/>
-      <c r="J30" s="126" t="n"/>
-      <c r="K30" s="128" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="L30" s="127" t="n"/>
+    <row r="30" ht="25" customHeight="1" s="129">
+      <c r="A30" s="179" t="inlineStr"/>
+      <c r="B30" s="178" t="inlineStr"/>
+      <c r="C30" s="178" t="inlineStr"/>
+      <c r="D30" s="178" t="inlineStr"/>
+      <c r="E30" s="178" t="inlineStr"/>
+      <c r="F30" s="178" t="inlineStr"/>
+      <c r="G30" s="178" t="inlineStr"/>
+      <c r="H30" s="178" t="inlineStr"/>
+      <c r="I30" s="178" t="inlineStr"/>
+      <c r="J30" s="178" t="inlineStr"/>
+      <c r="K30" s="178" t="inlineStr"/>
+      <c r="L30" s="179" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J25:K28"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="L10:L11"/>
@@ -3646,6 +3707,7 @@
     <mergeCell ref="C8:H9"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I23:L23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" pageOrder="downThenOver"/>
